--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N2">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P2">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q2">
-        <v>2.360005647805257</v>
+        <v>4.408547994949333</v>
       </c>
       <c r="R2">
-        <v>2.360005647805257</v>
+        <v>39.676931954544</v>
       </c>
       <c r="S2">
-        <v>0.0006786438507894954</v>
+        <v>0.001229723039603797</v>
       </c>
       <c r="T2">
-        <v>0.0006786438507894954</v>
+        <v>0.001229723039603797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N3">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P3">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q3">
-        <v>75.80032255955975</v>
+        <v>83.37228728156933</v>
       </c>
       <c r="R3">
-        <v>75.80032255955975</v>
+        <v>750.3505855341239</v>
       </c>
       <c r="S3">
-        <v>0.02179716088423121</v>
+        <v>0.02325591615472267</v>
       </c>
       <c r="T3">
-        <v>0.02179716088423121</v>
+        <v>0.02325591615472267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P4">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q4">
-        <v>21.25632336565037</v>
+        <v>23.24476703282367</v>
       </c>
       <c r="R4">
-        <v>21.25632336565037</v>
+        <v>209.202903295413</v>
       </c>
       <c r="S4">
-        <v>0.006112473991707182</v>
+        <v>0.006483909351386016</v>
       </c>
       <c r="T4">
-        <v>0.006112473991707182</v>
+        <v>0.006483909351386015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N5">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P5">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q5">
-        <v>67.66186321707873</v>
+        <v>116.5169626511983</v>
       </c>
       <c r="R5">
-        <v>67.66186321707873</v>
+        <v>1048.652663860784</v>
       </c>
       <c r="S5">
-        <v>0.01945686335451495</v>
+        <v>0.03250131191516728</v>
       </c>
       <c r="T5">
-        <v>0.01945686335451495</v>
+        <v>0.03250131191516728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N6">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P6">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q6">
-        <v>2173.211348712246</v>
+        <v>2203.511381629685</v>
       </c>
       <c r="R6">
-        <v>2173.211348712246</v>
+        <v>19831.60243466717</v>
       </c>
       <c r="S6">
-        <v>0.6249292325385197</v>
+        <v>0.6146487952776299</v>
       </c>
       <c r="T6">
-        <v>0.6249292325385197</v>
+        <v>0.6146487952776299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P7">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q7">
-        <v>609.4233060002027</v>
+        <v>614.3541264158216</v>
       </c>
       <c r="R7">
-        <v>609.4233060002027</v>
+        <v>5529.187137742394</v>
       </c>
       <c r="S7">
-        <v>0.1752459277076148</v>
+        <v>0.1713683109710326</v>
       </c>
       <c r="T7">
-        <v>0.1752459277076148</v>
+        <v>0.1713683109710326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.45349934766411</v>
+        <v>5.900730666666667</v>
       </c>
       <c r="N8">
-        <v>3.45349934766411</v>
+        <v>17.702192</v>
       </c>
       <c r="O8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="P8">
-        <v>0.02373853484767568</v>
+        <v>0.03970749001357476</v>
       </c>
       <c r="Q8">
-        <v>12.52964360511404</v>
+        <v>21.425547149936</v>
       </c>
       <c r="R8">
-        <v>12.52964360511404</v>
+        <v>192.829924349424</v>
       </c>
       <c r="S8">
-        <v>0.003603027642371232</v>
+        <v>0.005976455058803681</v>
       </c>
       <c r="T8">
-        <v>0.003603027642371232</v>
+        <v>0.005976455058803681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.921922901165</v>
+        <v>111.5917106666667</v>
       </c>
       <c r="N9">
-        <v>110.921922901165</v>
+        <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="P9">
-        <v>0.7624509713434585</v>
+        <v>0.7509284844884279</v>
       </c>
       <c r="Q9">
-        <v>402.4359126882652</v>
+        <v>405.1893898389559</v>
       </c>
       <c r="R9">
-        <v>402.4359126882652</v>
+        <v>3646.704508550604</v>
       </c>
       <c r="S9">
-        <v>0.1157245779207076</v>
+        <v>0.1130237730560752</v>
       </c>
       <c r="T9">
-        <v>0.1157245779207076</v>
+        <v>0.1130237730560752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.1053064408041</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>31.1053064408041</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="P10">
-        <v>0.2138104938088657</v>
+        <v>0.2093640254979974</v>
       </c>
       <c r="Q10">
-        <v>112.8531859126443</v>
+        <v>112.969588313797</v>
       </c>
       <c r="R10">
-        <v>112.8531859126443</v>
+        <v>1016.726294824173</v>
       </c>
       <c r="S10">
-        <v>0.0324520921095438</v>
+        <v>0.03151180517557882</v>
       </c>
       <c r="T10">
-        <v>0.0324520921095438</v>
+        <v>0.03151180517557882</v>
       </c>
     </row>
   </sheetData>
